--- a/stacked_F4_CFI90.xlsx
+++ b/stacked_F4_CFI90.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education Big Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{848EFC91-1E3B-4480-86EF-A003F78CBEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575770CE-094C-4B2A-A8E1-02D09C1B747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stacked_F4_CFI90" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -268,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,11 +705,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,12 +1069,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" activeCellId="1" sqref="A23:XFD25 A26:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1744,7 +1753,7 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1828,7 +1837,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I26">
+  <autoFilter ref="A1:I26" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <customFilters>
         <customFilter operator="greaterThanOrEqual" val="0.01"/>
